--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/010_System_Functional_Design/System_function_design_document(Batch)_BA10601／Intra-period_project_list_output_batch.xlsx
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/010_System_Functional_Design/System_function_design_document(Batch)_BA10601／Intra-period_project_list_output_batch.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788B8F7C-DA5A-4D1A-953D-A6549C430605}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7B1D90-EE9B-4B9D-A189-7EB8D1F74EA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2685" windowWidth="24000" windowHeight="10830" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -48,71 +48,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{F93ECBF0-EAA3-4AA5-9616-EBD522C80886}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「取引」の訳は
-「subfunction」
-としてください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{8B0E11DB-F10C-4303-9229-A4A85858BDE9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「取引」の訳は「subfunction」としてください。
-他のセルも同様に置き換えてください。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
@@ -188,7 +123,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
@@ -904,10 +839,6 @@
     <t>2.1. Process overview</t>
   </si>
   <si>
-    <t>Mandatory</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>1 Batch subfunction definition</t>
   </si>
   <si>
@@ -928,6 +859,10 @@
   </si>
   <si>
     <t>1.1. Batch subfunction overview</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Required</t>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -939,7 +874,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1110,21 +1045,6 @@
       <color indexed="55"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3492,8 +3412,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5882723" y="6799767"/>
-          <a:ext cx="603802" cy="345799"/>
+          <a:off x="5943600" y="6948854"/>
+          <a:ext cx="609600" cy="352425"/>
           <a:chOff x="454" y="733"/>
           <a:chExt cx="64" cy="39"/>
         </a:xfrm>
@@ -3949,8 +3869,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7608404" y="6356902"/>
-          <a:ext cx="677104" cy="361536"/>
+          <a:off x="7686675" y="6496050"/>
+          <a:ext cx="685800" cy="371475"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -4174,8 +4094,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7608404" y="6823213"/>
-          <a:ext cx="677104" cy="361536"/>
+          <a:off x="7686675" y="6972300"/>
+          <a:ext cx="685800" cy="371475"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -4578,8 +4498,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4223716" y="5919166"/>
-          <a:ext cx="142875" cy="158612"/>
+          <a:off x="4267200" y="6048375"/>
+          <a:ext cx="142875" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -5621,8 +5541,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4166566" y="2289291"/>
-          <a:ext cx="142875" cy="158611"/>
+          <a:off x="4210050" y="2338987"/>
+          <a:ext cx="142875" cy="161924"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -6156,42 +6076,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -6202,7 +6122,7 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -6211,7 +6131,7 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -6223,7 +6143,7 @@
       <c r="K25" s="168"/>
       <c r="L25" s="24"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -6232,7 +6152,7 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -6241,7 +6161,7 @@
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -6250,7 +6170,7 @@
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="24"/>
@@ -6258,7 +6178,7 @@
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -6267,7 +6187,7 @@
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -6276,7 +6196,7 @@
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75" customHeight="1">
+    <row r="32" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -6285,7 +6205,7 @@
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="24"/>
@@ -6297,7 +6217,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" customHeight="1">
+    <row r="34" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="24"/>
@@ -6312,515 +6232,515 @@
       <c r="R34" s="170"/>
       <c r="S34" s="170"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="170"/>
       <c r="R35" s="170"/>
       <c r="S35" s="170"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="171"/>
       <c r="P36" s="170"/>
       <c r="Q36" s="171"/>
       <c r="R36" s="170"/>
       <c r="S36" s="23"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="172"/>
       <c r="P37" s="173"/>
       <c r="Q37" s="172"/>
       <c r="R37" s="173"/>
       <c r="S37" s="172"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="173"/>
       <c r="P38" s="173"/>
       <c r="Q38" s="173"/>
       <c r="R38" s="173"/>
       <c r="S38" s="173"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="173"/>
       <c r="P39" s="173"/>
       <c r="Q39" s="173"/>
       <c r="R39" s="173"/>
       <c r="S39" s="173"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="I25:K25"/>
@@ -6850,12 +6770,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="201" t="s">
         <v>25</v>
       </c>
@@ -6913,7 +6833,7 @@
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="201" t="s">
         <v>30</v>
       </c>
@@ -6967,7 +6887,7 @@
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1" ht="27" customHeight="1">
+    <row r="3" spans="1:40" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="204" t="s">
         <v>33</v>
       </c>
@@ -7013,7 +6933,7 @@
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -7055,7 +6975,7 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -7099,7 +7019,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7141,7 +7061,7 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>36</v>
       </c>
@@ -7197,7 +7117,7 @@
       <c r="AM7" s="31"/>
       <c r="AN7" s="31"/>
     </row>
-    <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1">
+    <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>1</v>
       </c>
@@ -7253,7 +7173,7 @@
       <c r="AM8" s="31"/>
       <c r="AN8" s="31"/>
     </row>
-    <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22"/>
       <c r="B9" s="195"/>
       <c r="C9" s="196"/>
@@ -7295,7 +7215,7 @@
       <c r="AM9" s="31"/>
       <c r="AN9" s="31"/>
     </row>
-    <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="195"/>
       <c r="C10" s="196"/>
@@ -7337,7 +7257,7 @@
       <c r="AM10" s="31"/>
       <c r="AN10" s="31"/>
     </row>
-    <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="195"/>
       <c r="C11" s="196"/>
@@ -7379,7 +7299,7 @@
       <c r="AM11" s="31"/>
       <c r="AN11" s="31"/>
     </row>
-    <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
       <c r="B12" s="195"/>
       <c r="C12" s="196"/>
@@ -7421,7 +7341,7 @@
       <c r="AM12" s="31"/>
       <c r="AN12" s="31"/>
     </row>
-    <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
       <c r="B13" s="195"/>
       <c r="C13" s="196"/>
@@ -7463,7 +7383,7 @@
       <c r="AM13" s="31"/>
       <c r="AN13" s="31"/>
     </row>
-    <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
       <c r="B14" s="195"/>
       <c r="C14" s="196"/>
@@ -7505,7 +7425,7 @@
       <c r="AM14" s="31"/>
       <c r="AN14" s="31"/>
     </row>
-    <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22"/>
       <c r="B15" s="195"/>
       <c r="C15" s="196"/>
@@ -7547,7 +7467,7 @@
       <c r="AM15" s="31"/>
       <c r="AN15" s="31"/>
     </row>
-    <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22"/>
       <c r="B16" s="195"/>
       <c r="C16" s="196"/>
@@ -7589,7 +7509,7 @@
       <c r="AM16" s="31"/>
       <c r="AN16" s="31"/>
     </row>
-    <row r="17" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22"/>
       <c r="B17" s="195"/>
       <c r="C17" s="196"/>
@@ -7631,7 +7551,7 @@
       <c r="AM17" s="31"/>
       <c r="AN17" s="31"/>
     </row>
-    <row r="18" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22"/>
       <c r="B18" s="195"/>
       <c r="C18" s="196"/>
@@ -7673,7 +7593,7 @@
       <c r="AM18" s="31"/>
       <c r="AN18" s="31"/>
     </row>
-    <row r="19" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22"/>
       <c r="B19" s="195"/>
       <c r="C19" s="196"/>
@@ -7715,7 +7635,7 @@
       <c r="AM19" s="31"/>
       <c r="AN19" s="31"/>
     </row>
-    <row r="20" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
       <c r="B20" s="195"/>
       <c r="C20" s="196"/>
@@ -7757,7 +7677,7 @@
       <c r="AM20" s="31"/>
       <c r="AN20" s="31"/>
     </row>
-    <row r="21" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22"/>
       <c r="B21" s="195"/>
       <c r="C21" s="196"/>
@@ -7799,7 +7719,7 @@
       <c r="AM21" s="31"/>
       <c r="AN21" s="31"/>
     </row>
-    <row r="22" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22"/>
       <c r="B22" s="195"/>
       <c r="C22" s="196"/>
@@ -7841,7 +7761,7 @@
       <c r="AM22" s="31"/>
       <c r="AN22" s="31"/>
     </row>
-    <row r="23" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22"/>
       <c r="B23" s="195"/>
       <c r="C23" s="196"/>
@@ -7883,7 +7803,7 @@
       <c r="AM23" s="31"/>
       <c r="AN23" s="31"/>
     </row>
-    <row r="24" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22"/>
       <c r="B24" s="195"/>
       <c r="C24" s="196"/>
@@ -7925,7 +7845,7 @@
       <c r="AM24" s="31"/>
       <c r="AN24" s="31"/>
     </row>
-    <row r="25" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22"/>
       <c r="B25" s="195"/>
       <c r="C25" s="196"/>
@@ -7967,7 +7887,7 @@
       <c r="AM25" s="31"/>
       <c r="AN25" s="31"/>
     </row>
-    <row r="26" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="22"/>
       <c r="B26" s="195"/>
       <c r="C26" s="196"/>
@@ -8009,7 +7929,7 @@
       <c r="AM26" s="31"/>
       <c r="AN26" s="31"/>
     </row>
-    <row r="27" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22"/>
       <c r="B27" s="195"/>
       <c r="C27" s="196"/>
@@ -8051,7 +7971,7 @@
       <c r="AM27" s="31"/>
       <c r="AN27" s="31"/>
     </row>
-    <row r="28" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22"/>
       <c r="B28" s="195"/>
       <c r="C28" s="196"/>
@@ -8093,7 +8013,7 @@
       <c r="AM28" s="31"/>
       <c r="AN28" s="31"/>
     </row>
-    <row r="29" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="22"/>
       <c r="B29" s="195"/>
       <c r="C29" s="196"/>
@@ -8135,7 +8055,7 @@
       <c r="AM29" s="31"/>
       <c r="AN29" s="31"/>
     </row>
-    <row r="30" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="22"/>
       <c r="B30" s="195"/>
       <c r="C30" s="196"/>
@@ -8177,7 +8097,7 @@
       <c r="AM30" s="31"/>
       <c r="AN30" s="31"/>
     </row>
-    <row r="31" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="22"/>
       <c r="B31" s="195"/>
       <c r="C31" s="196"/>
@@ -8219,7 +8139,7 @@
       <c r="AM31" s="31"/>
       <c r="AN31" s="31"/>
     </row>
-    <row r="32" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="22"/>
       <c r="B32" s="195"/>
       <c r="C32" s="196"/>
@@ -8261,7 +8181,7 @@
       <c r="AM32" s="31"/>
       <c r="AN32" s="31"/>
     </row>
-    <row r="33" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="22"/>
       <c r="B33" s="195"/>
       <c r="C33" s="196"/>
@@ -8303,7 +8223,7 @@
       <c r="AM33" s="31"/>
       <c r="AN33" s="31"/>
     </row>
-    <row r="34" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -8345,7 +8265,7 @@
       <c r="AM34" s="31"/>
       <c r="AN34" s="31"/>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -8387,7 +8307,7 @@
       <c r="AM35" s="17"/>
       <c r="AN35" s="17"/>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -8429,7 +8349,7 @@
       <c r="AM36" s="17"/>
       <c r="AN36" s="17"/>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -8471,7 +8391,7 @@
       <c r="AM37" s="17"/>
       <c r="AN37" s="17"/>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -8513,7 +8433,7 @@
       <c r="AM38" s="17"/>
       <c r="AN38" s="17"/>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -8555,7 +8475,7 @@
       <c r="AM39" s="17"/>
       <c r="AN39" s="17"/>
     </row>
-    <row r="40" spans="1:40">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -8597,7 +8517,7 @@
       <c r="AM40" s="17"/>
       <c r="AN40" s="17"/>
     </row>
-    <row r="41" spans="1:40">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -8639,7 +8559,7 @@
       <c r="AM41" s="17"/>
       <c r="AN41" s="17"/>
     </row>
-    <row r="42" spans="1:40">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -8871,7 +8791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8881,7 +8801,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="138" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="158" customWidth="1"/>
@@ -9016,7 +8936,7 @@
     <col min="16163" max="16384" width="4.83203125" style="138"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="238" t="s">
         <v>0</v>
       </c>
@@ -9072,7 +8992,7 @@
       <c r="AH1" s="269"/>
       <c r="AI1" s="270"/>
     </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="238" t="s">
         <v>3</v>
       </c>
@@ -9122,7 +9042,7 @@
       <c r="AH2" s="269"/>
       <c r="AI2" s="270"/>
     </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="259" t="s">
         <v>5</v>
       </c>
@@ -9170,7 +9090,7 @@
       <c r="AH3" s="269"/>
       <c r="AI3" s="270"/>
     </row>
-    <row r="4" spans="1:35" s="122" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:35" s="122" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="129"/>
       <c r="B4" s="129"/>
       <c r="C4" s="129"/>
@@ -9207,7 +9127,7 @@
       <c r="AH4" s="129"/>
       <c r="AI4" s="129"/>
     </row>
-    <row r="5" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="129"/>
       <c r="B5" s="129"/>
       <c r="C5" s="129"/>
@@ -9246,7 +9166,7 @@
       <c r="AH5" s="129"/>
       <c r="AI5" s="129"/>
     </row>
-    <row r="6" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="129"/>
       <c r="B6" s="129"/>
       <c r="C6" s="129"/>
@@ -9283,10 +9203,10 @@
       <c r="AH6" s="129"/>
       <c r="AI6" s="129"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="86"/>
       <c r="B7" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="132"/>
@@ -9322,11 +9242,11 @@
       <c r="AH7" s="136"/>
       <c r="AI7" s="137"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="86"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D8" s="132"/>
       <c r="E8" s="132"/>
@@ -9361,7 +9281,7 @@
       <c r="AH8" s="140"/>
       <c r="AI8" s="137"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="86"/>
       <c r="B9" s="132"/>
       <c r="C9" s="38" t="s">
@@ -9399,7 +9319,7 @@
       <c r="AH9" s="141"/>
       <c r="AI9" s="86"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="86"/>
       <c r="B10" s="132"/>
       <c r="C10" s="87" t="s">
@@ -9438,7 +9358,7 @@
       <c r="AH10" s="141"/>
       <c r="AI10" s="86"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
       <c r="B11" s="132"/>
       <c r="C11" s="132"/>
@@ -9475,7 +9395,7 @@
       <c r="AH11" s="136"/>
       <c r="AI11" s="137"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="86"/>
       <c r="B12" s="135" t="s">
         <v>166</v>
@@ -9513,7 +9433,7 @@
       <c r="AH12" s="136"/>
       <c r="AI12" s="137"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="86"/>
       <c r="B13" s="132"/>
       <c r="C13" s="38" t="s">
@@ -9552,7 +9472,7 @@
       <c r="AH13" s="136"/>
       <c r="AI13" s="137"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="86"/>
       <c r="B14" s="132"/>
       <c r="C14" s="38" t="s">
@@ -9586,7 +9506,7 @@
       <c r="AH14" s="136"/>
       <c r="AI14" s="137"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="86"/>
       <c r="B15" s="137"/>
       <c r="C15" s="38" t="s">
@@ -9625,7 +9545,7 @@
       <c r="AH15" s="136"/>
       <c r="AI15" s="137"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="86"/>
       <c r="B16" s="135"/>
       <c r="C16" s="38" t="s">
@@ -9664,7 +9584,7 @@
       <c r="AH16" s="136"/>
       <c r="AI16" s="137"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="86"/>
       <c r="B17" s="135"/>
       <c r="C17" s="38" t="s">
@@ -9699,7 +9619,7 @@
       <c r="AH17" s="136"/>
       <c r="AI17" s="137"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="86"/>
       <c r="B18" s="129"/>
       <c r="C18" s="38" t="s">
@@ -9738,7 +9658,7 @@
       <c r="AH18" s="136"/>
       <c r="AI18" s="137"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="86"/>
       <c r="B19" s="129"/>
       <c r="C19" s="38" t="s">
@@ -9777,7 +9697,7 @@
       <c r="AH19" s="136"/>
       <c r="AI19" s="137"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="86"/>
       <c r="B20" s="142"/>
       <c r="C20" s="83"/>
@@ -9814,7 +9734,7 @@
       <c r="AH20" s="136"/>
       <c r="AI20" s="137"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="86"/>
       <c r="B21" s="142"/>
       <c r="C21" s="83"/>
@@ -9851,7 +9771,7 @@
       <c r="AH21" s="136"/>
       <c r="AI21" s="137"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="86"/>
       <c r="B22" s="142"/>
       <c r="C22" s="83"/>
@@ -9888,7 +9808,7 @@
       <c r="AH22" s="136"/>
       <c r="AI22" s="137"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="86"/>
       <c r="B23" s="143"/>
       <c r="C23" s="60"/>
@@ -9925,7 +9845,7 @@
       <c r="AH23" s="136"/>
       <c r="AI23" s="137"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="86"/>
       <c r="B24" s="142"/>
       <c r="C24" s="83"/>
@@ -9962,7 +9882,7 @@
       <c r="AH24" s="136"/>
       <c r="AI24" s="137"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="86"/>
       <c r="B25" s="142"/>
       <c r="C25" s="83"/>
@@ -9999,7 +9919,7 @@
       <c r="AH25" s="136"/>
       <c r="AI25" s="137"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="86"/>
       <c r="B26" s="142"/>
       <c r="C26" s="83"/>
@@ -10036,7 +9956,7 @@
       <c r="AH26" s="136"/>
       <c r="AI26" s="137"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="86"/>
       <c r="B27" s="142"/>
       <c r="C27" s="83"/>
@@ -10073,7 +9993,7 @@
       <c r="AH27" s="136"/>
       <c r="AI27" s="137"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="86"/>
       <c r="B28" s="142"/>
       <c r="C28" s="83"/>
@@ -10110,7 +10030,7 @@
       <c r="AH28" s="136"/>
       <c r="AI28" s="137"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="86"/>
       <c r="B29" s="129"/>
       <c r="C29" s="86"/>
@@ -10147,7 +10067,7 @@
       <c r="AH29" s="136"/>
       <c r="AI29" s="137"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="86"/>
       <c r="B30" s="129"/>
       <c r="C30" s="86"/>
@@ -10184,7 +10104,7 @@
       <c r="AH30" s="136"/>
       <c r="AI30" s="137"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="144"/>
       <c r="B31" s="129"/>
       <c r="C31" s="129"/>
@@ -10221,7 +10141,7 @@
       <c r="AH31" s="147"/>
       <c r="AI31" s="148"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="144"/>
       <c r="B32" s="129"/>
       <c r="C32" s="130"/>
@@ -10258,7 +10178,7 @@
       <c r="AH32" s="147"/>
       <c r="AI32" s="148"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="144"/>
       <c r="B33" s="150"/>
       <c r="C33" s="86"/>
@@ -10295,7 +10215,7 @@
       <c r="AH33" s="147"/>
       <c r="AI33" s="148"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="144"/>
       <c r="B34" s="150"/>
       <c r="C34" s="86"/>
@@ -10332,7 +10252,7 @@
       <c r="AH34" s="147"/>
       <c r="AI34" s="148"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="144"/>
       <c r="B35" s="150"/>
       <c r="C35" s="86"/>
@@ -10369,7 +10289,7 @@
       <c r="AH35" s="147"/>
       <c r="AI35" s="148"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="144"/>
       <c r="B36" s="150"/>
       <c r="C36" s="86"/>
@@ -10406,7 +10326,7 @@
       <c r="AH36" s="147"/>
       <c r="AI36" s="148"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="144"/>
       <c r="B37" s="144"/>
       <c r="C37" s="144"/>
@@ -10443,7 +10363,7 @@
       <c r="AH37" s="155"/>
       <c r="AI37" s="144"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="156"/>
       <c r="E38" s="156"/>
       <c r="F38" s="156"/>
@@ -10475,7 +10395,7 @@
       <c r="AH38" s="162"/>
       <c r="AI38" s="159"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S39" s="159"/>
       <c r="T39" s="159"/>
       <c r="U39" s="160"/>
@@ -10494,7 +10414,7 @@
       <c r="AH39" s="165"/>
       <c r="AI39" s="159"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q40" s="166"/>
       <c r="S40" s="159"/>
       <c r="T40" s="160"/>
@@ -10514,7 +10434,7 @@
       <c r="AH40" s="165"/>
       <c r="AI40" s="159"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S41" s="159"/>
       <c r="T41" s="159"/>
       <c r="U41" s="159"/>
@@ -10533,7 +10453,7 @@
       <c r="AH41" s="165"/>
       <c r="AI41" s="159"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J42" s="156"/>
       <c r="K42" s="156"/>
       <c r="L42" s="156"/>
@@ -10547,37 +10467,37 @@
       <c r="AH42" s="165"/>
       <c r="AI42" s="159"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE43" s="159"/>
       <c r="AF43" s="163"/>
       <c r="AG43" s="164"/>
       <c r="AH43" s="165"/>
       <c r="AI43" s="159"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE44" s="159"/>
       <c r="AF44" s="163"/>
       <c r="AG44" s="163"/>
       <c r="AH44" s="165"/>
       <c r="AI44" s="159"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="156"/>
       <c r="AF45" s="167"/>
       <c r="AG45" s="167"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="156"/>
       <c r="AG46" s="167"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF47" s="167"/>
       <c r="AG47" s="167"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG48" s="167"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S49" s="156"/>
       <c r="T49" s="156"/>
       <c r="V49" s="156"/>
@@ -10590,7 +10510,7 @@
       <c r="AC49" s="156"/>
       <c r="AD49" s="156"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R50" s="156"/>
       <c r="S50" s="156"/>
       <c r="T50" s="156"/>
@@ -10605,10 +10525,10 @@
       <c r="AD50" s="156"/>
       <c r="AG50" s="167"/>
     </row>
-    <row r="51" spans="1:34" ht="15" customHeight="1">
+    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R51" s="156"/>
     </row>
-    <row r="52" spans="1:34" s="156" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:34" s="156" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="138"/>
       <c r="B52" s="138"/>
       <c r="C52" s="138"/>
@@ -10641,7 +10561,7 @@
       <c r="AD52" s="138"/>
       <c r="AH52" s="166"/>
     </row>
-    <row r="53" spans="1:34" s="156" customFormat="1" ht="15" customHeight="1">
+    <row r="53" spans="1:34" s="156" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="138"/>
       <c r="B53" s="138"/>
       <c r="C53" s="138"/>
@@ -10698,7 +10618,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10713,12 +10632,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="238" t="s">
         <v>6</v>
       </c>
@@ -10774,7 +10693,7 @@
       <c r="AH1" s="269"/>
       <c r="AI1" s="270"/>
     </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="238" t="s">
         <v>9</v>
       </c>
@@ -10824,7 +10743,7 @@
       <c r="AH2" s="269"/>
       <c r="AI2" s="270"/>
     </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="259" t="s">
         <v>11</v>
       </c>
@@ -10872,21 +10791,21 @@
       <c r="AH3" s="269"/>
       <c r="AI3" s="270"/>
     </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" ht="12" customHeight="1">
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="38" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="12" customHeight="1">
-      <c r="C6" s="38" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" ht="12" customHeight="1"/>
-    <row r="8" spans="1:35" s="85" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:35" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="271" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" s="272"/>
       <c r="F8" s="272"/>
@@ -10921,9 +10840,9 @@
       <c r="AG8" s="278"/>
       <c r="AH8" s="279"/>
     </row>
-    <row r="9" spans="1:35" s="85" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:35" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="291" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E9" s="292"/>
       <c r="F9" s="292"/>
@@ -10958,9 +10877,9 @@
       <c r="AG9" s="278"/>
       <c r="AH9" s="279"/>
     </row>
-    <row r="10" spans="1:35" s="85" customFormat="1">
+    <row r="10" spans="1:35" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D10" s="280" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E10" s="281"/>
       <c r="F10" s="281"/>
@@ -10995,7 +10914,7 @@
       <c r="AG10" s="119"/>
       <c r="AH10" s="120"/>
     </row>
-    <row r="11" spans="1:35" s="85" customFormat="1">
+    <row r="11" spans="1:35" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D11" s="294"/>
       <c r="E11" s="295"/>
       <c r="F11" s="295"/>
@@ -11028,7 +10947,7 @@
       <c r="AG11" s="122"/>
       <c r="AH11" s="123"/>
     </row>
-    <row r="12" spans="1:35" s="85" customFormat="1">
+    <row r="12" spans="1:35" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D12" s="280" t="s">
         <v>152</v>
       </c>
@@ -11065,7 +10984,7 @@
       <c r="AG12" s="119"/>
       <c r="AH12" s="120"/>
     </row>
-    <row r="13" spans="1:35" s="85" customFormat="1">
+    <row r="13" spans="1:35" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D13" s="294"/>
       <c r="E13" s="295"/>
       <c r="F13" s="295"/>
@@ -11098,7 +11017,7 @@
       <c r="AG13" s="122"/>
       <c r="AH13" s="123"/>
     </row>
-    <row r="14" spans="1:35" s="85" customFormat="1">
+    <row r="14" spans="1:35" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D14" s="283"/>
       <c r="E14" s="284"/>
       <c r="F14" s="284"/>
@@ -11131,7 +11050,7 @@
       <c r="AG14" s="125"/>
       <c r="AH14" s="126"/>
     </row>
-    <row r="15" spans="1:35" s="85" customFormat="1">
+    <row r="15" spans="1:35" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D15" s="280" t="s">
         <v>153</v>
       </c>
@@ -11168,7 +11087,7 @@
       <c r="AG15" s="119"/>
       <c r="AH15" s="120"/>
     </row>
-    <row r="16" spans="1:35" s="85" customFormat="1">
+    <row r="16" spans="1:35" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D16" s="283"/>
       <c r="E16" s="284"/>
       <c r="F16" s="284"/>
@@ -11201,7 +11120,7 @@
       <c r="AG16" s="125"/>
       <c r="AH16" s="126"/>
     </row>
-    <row r="17" spans="3:34" s="127" customFormat="1">
+    <row r="17" spans="3:34" s="127" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D17" s="75"/>
       <c r="E17" s="75"/>
       <c r="F17" s="75"/>
@@ -11234,12 +11153,12 @@
       <c r="AG17" s="128"/>
       <c r="AH17" s="128"/>
     </row>
-    <row r="18" spans="3:34">
+    <row r="18" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C18" s="38" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="3:34">
+    <row r="20" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D20" s="274" t="s">
         <v>36</v>
       </c>
@@ -11284,7 +11203,7 @@
       <c r="AG20" s="281"/>
       <c r="AH20" s="282"/>
     </row>
-    <row r="21" spans="3:34" ht="11.25" customHeight="1">
+    <row r="21" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="275"/>
       <c r="E21" s="283"/>
       <c r="F21" s="284"/>
@@ -11321,7 +11240,7 @@
       <c r="AG21" s="284"/>
       <c r="AH21" s="285"/>
     </row>
-    <row r="22" spans="3:34">
+    <row r="22" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D22" s="298">
         <v>1</v>
       </c>
@@ -11368,7 +11287,7 @@
       <c r="AG22" s="297"/>
       <c r="AH22" s="297"/>
     </row>
-    <row r="23" spans="3:34">
+    <row r="23" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D23" s="299"/>
       <c r="E23" s="319"/>
       <c r="F23" s="320"/>
@@ -11401,7 +11320,7 @@
       <c r="AG23" s="297"/>
       <c r="AH23" s="297"/>
     </row>
-    <row r="24" spans="3:34">
+    <row r="24" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D24" s="300"/>
       <c r="E24" s="322"/>
       <c r="F24" s="323"/>
@@ -11499,16 +11418,16 @@
   </sheetPr>
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="238" t="s">
         <v>12</v>
       </c>
@@ -11564,7 +11483,7 @@
       <c r="AH1" s="269"/>
       <c r="AI1" s="270"/>
     </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="238" t="s">
         <v>15</v>
       </c>
@@ -11614,7 +11533,7 @@
       <c r="AH2" s="269"/>
       <c r="AI2" s="270"/>
     </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="259" t="s">
         <v>17</v>
       </c>
@@ -11662,13 +11581,13 @@
       <c r="AH3" s="269"/>
       <c r="AI3" s="270"/>
     </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" ht="12" customHeight="1">
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="38" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="12" customHeight="1"/>
+    <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A1:D1"/>
@@ -11711,12 +11630,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="1" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="238" t="s">
         <v>18</v>
       </c>
@@ -11775,7 +11694,7 @@
       <c r="AK1" s="35"/>
       <c r="AL1" s="36"/>
     </row>
-    <row r="2" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="2" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="238" t="s">
         <v>21</v>
       </c>
@@ -11828,7 +11747,7 @@
       <c r="AK2" s="35"/>
       <c r="AL2" s="35"/>
     </row>
-    <row r="3" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="3" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="259" t="s">
         <v>23</v>
       </c>
@@ -11879,21 +11798,21 @@
       <c r="AK3" s="35"/>
       <c r="AL3" s="35"/>
     </row>
-    <row r="4" spans="1:38" ht="12" customHeight="1"/>
-    <row r="5" spans="1:38" ht="12" customHeight="1"/>
-    <row r="6" spans="1:38" ht="12" customHeight="1"/>
-    <row r="7" spans="1:38" ht="12" customHeight="1">
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="12" customHeight="1">
+    <row r="8" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="12" customHeight="1"/>
-    <row r="10" spans="1:38" s="39" customFormat="1">
+    <row r="9" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:38" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D10" s="286" t="s">
         <v>56</v>
       </c>
@@ -11931,7 +11850,7 @@
       <c r="AH10" s="329"/>
       <c r="AI10" s="40"/>
     </row>
-    <row r="11" spans="1:38" s="39" customFormat="1">
+    <row r="11" spans="1:38" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D11" s="286" t="s">
         <v>58</v>
       </c>
@@ -11969,7 +11888,7 @@
       <c r="AH11" s="329"/>
       <c r="AI11" s="40"/>
     </row>
-    <row r="12" spans="1:38" s="39" customFormat="1">
+    <row r="12" spans="1:38" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D12" s="286" t="s">
         <v>60</v>
       </c>
@@ -12007,7 +11926,7 @@
       <c r="AH12" s="329"/>
       <c r="AI12" s="40"/>
     </row>
-    <row r="13" spans="1:38" s="41" customFormat="1">
+    <row r="13" spans="1:38" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -12041,7 +11960,7 @@
       <c r="AH13" s="42"/>
       <c r="AI13" s="42"/>
     </row>
-    <row r="14" spans="1:38" s="41" customFormat="1">
+    <row r="14" spans="1:38" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -12075,22 +11994,22 @@
       <c r="AH14" s="42"/>
       <c r="AI14" s="42"/>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C15" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="3:34">
+    <row r="17" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D17" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="3:34">
+    <row r="20" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C20" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="3:34">
+    <row r="22" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D22" s="43" t="s">
         <v>36</v>
       </c>
@@ -12131,7 +12050,7 @@
       <c r="AG22" s="292"/>
       <c r="AH22" s="293"/>
     </row>
-    <row r="23" spans="3:34" ht="11.25" customHeight="1">
+    <row r="23" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="44">
         <v>1</v>
       </c>
@@ -12172,12 +12091,12 @@
       <c r="AG23" s="328"/>
       <c r="AH23" s="329"/>
     </row>
-    <row r="26" spans="3:34">
+    <row r="26" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C26" s="38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="3:34">
+    <row r="28" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D28" s="340" t="s">
         <v>36</v>
       </c>
@@ -12222,7 +12141,7 @@
       <c r="AG28" s="46"/>
       <c r="AH28" s="47"/>
     </row>
-    <row r="29" spans="3:34" s="39" customFormat="1">
+    <row r="29" spans="3:34" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D29" s="341"/>
       <c r="E29" s="48"/>
       <c r="F29" s="49"/>
@@ -12265,7 +12184,7 @@
       <c r="AG29" s="49"/>
       <c r="AH29" s="50"/>
     </row>
-    <row r="30" spans="3:34" s="39" customFormat="1" ht="11.25" customHeight="1">
+    <row r="30" spans="3:34" s="39" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="44">
         <v>1</v>
       </c>
@@ -12316,7 +12235,7 @@
       <c r="AG30" s="53"/>
       <c r="AH30" s="54"/>
     </row>
-    <row r="31" spans="3:34" ht="11.25" customHeight="1">
+    <row r="31" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" s="44">
         <v>2</v>
       </c>
@@ -12367,17 +12286,17 @@
       <c r="AG31" s="53"/>
       <c r="AH31" s="54"/>
     </row>
-    <row r="34" spans="3:36">
+    <row r="34" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C34" s="38" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="3:36">
+    <row r="35" spans="3:36" x14ac:dyDescent="0.2">
       <c r="D35" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="3:36" s="39" customFormat="1">
+    <row r="37" spans="3:36" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E37" s="342" t="s">
         <v>87</v>
       </c>
@@ -12413,7 +12332,7 @@
       <c r="AI37" s="58"/>
       <c r="AJ37" s="59"/>
     </row>
-    <row r="38" spans="3:36" s="39" customFormat="1">
+    <row r="38" spans="3:36" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E38" s="343" t="s">
         <v>36</v>
       </c>
@@ -12433,7 +12352,7 @@
       <c r="O38" s="343"/>
       <c r="P38" s="343"/>
       <c r="Q38" s="354" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="R38" s="343" t="s">
         <v>89</v>
@@ -12459,7 +12378,7 @@
       <c r="AI38" s="60"/>
       <c r="AJ38" s="59"/>
     </row>
-    <row r="39" spans="3:36" s="39" customFormat="1">
+    <row r="39" spans="3:36" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E39" s="342"/>
       <c r="F39" s="342"/>
       <c r="G39" s="342"/>
@@ -12495,7 +12414,7 @@
       <c r="AI39" s="60"/>
       <c r="AJ39" s="59"/>
     </row>
-    <row r="40" spans="3:36" s="39" customFormat="1">
+    <row r="40" spans="3:36" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E40" s="61">
         <v>1</v>
       </c>
@@ -12539,7 +12458,7 @@
       <c r="AI40" s="60"/>
       <c r="AJ40" s="59"/>
     </row>
-    <row r="41" spans="3:36" ht="11.25" customHeight="1">
+    <row r="41" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E41" s="61">
         <v>2</v>
       </c>
@@ -12583,7 +12502,7 @@
       <c r="AI41" s="66"/>
       <c r="AJ41" s="67"/>
     </row>
-    <row r="42" spans="3:36" ht="11.25" customHeight="1">
+    <row r="42" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E42" s="61">
         <v>3</v>
       </c>
@@ -12627,7 +12546,7 @@
       <c r="AI42" s="66"/>
       <c r="AJ42" s="67"/>
     </row>
-    <row r="43" spans="3:36" ht="11.25" customHeight="1">
+    <row r="43" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E43" s="61">
         <v>4</v>
       </c>
@@ -12671,7 +12590,7 @@
       <c r="AI43" s="66"/>
       <c r="AJ43" s="67"/>
     </row>
-    <row r="44" spans="3:36" ht="11.25" customHeight="1">
+    <row r="44" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E44" s="61">
         <v>5</v>
       </c>
@@ -12715,7 +12634,7 @@
       <c r="AI44" s="66"/>
       <c r="AJ44" s="67"/>
     </row>
-    <row r="45" spans="3:36" ht="11.25" customHeight="1">
+    <row r="45" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E45" s="61">
         <v>6</v>
       </c>
@@ -12759,7 +12678,7 @@
       <c r="AI45" s="66"/>
       <c r="AJ45" s="67"/>
     </row>
-    <row r="46" spans="3:36" ht="11.25" customHeight="1">
+    <row r="46" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E46" s="61">
         <v>7</v>
       </c>
@@ -12803,7 +12722,7 @@
       <c r="AI46" s="66"/>
       <c r="AJ46" s="67"/>
     </row>
-    <row r="47" spans="3:36" ht="11.25" customHeight="1">
+    <row r="47" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E47" s="61">
         <v>8</v>
       </c>
@@ -12847,7 +12766,7 @@
       <c r="AI47" s="66"/>
       <c r="AJ47" s="67"/>
     </row>
-    <row r="48" spans="3:36" ht="11.25" customHeight="1">
+    <row r="48" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E48" s="61">
         <v>9</v>
       </c>
@@ -12891,7 +12810,7 @@
       <c r="AI48" s="66"/>
       <c r="AJ48" s="67"/>
     </row>
-    <row r="49" spans="2:36" ht="11.25" customHeight="1">
+    <row r="49" spans="2:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E49" s="61">
         <v>10</v>
       </c>
@@ -12935,7 +12854,7 @@
       <c r="AI49" s="66"/>
       <c r="AJ49" s="67"/>
     </row>
-    <row r="50" spans="2:36" ht="11.25" customHeight="1">
+    <row r="50" spans="2:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E50" s="61">
         <v>11</v>
       </c>
@@ -12979,7 +12898,7 @@
       <c r="AI50" s="66"/>
       <c r="AJ50" s="67"/>
     </row>
-    <row r="51" spans="2:36" ht="11.25" customHeight="1">
+    <row r="51" spans="2:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E51" s="61">
         <v>12</v>
       </c>
@@ -13023,7 +12942,7 @@
       <c r="AI51" s="66"/>
       <c r="AJ51" s="67"/>
     </row>
-    <row r="52" spans="2:36" ht="11.25" customHeight="1">
+    <row r="52" spans="2:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E52" s="61">
         <v>13</v>
       </c>
@@ -13067,7 +12986,7 @@
       <c r="AI52" s="66"/>
       <c r="AJ52" s="67"/>
     </row>
-    <row r="53" spans="2:36">
+    <row r="53" spans="2:36" x14ac:dyDescent="0.2">
       <c r="E53" s="288" t="s">
         <v>103</v>
       </c>
@@ -13103,7 +13022,7 @@
       <c r="AI53" s="67"/>
       <c r="AJ53" s="67"/>
     </row>
-    <row r="54" spans="2:36">
+    <row r="54" spans="2:36" x14ac:dyDescent="0.2">
       <c r="E54" s="68"/>
       <c r="F54" s="69"/>
       <c r="G54" s="69"/>
@@ -13137,7 +13056,7 @@
       <c r="AI54" s="67"/>
       <c r="AJ54" s="67"/>
     </row>
-    <row r="55" spans="2:36">
+    <row r="55" spans="2:36" x14ac:dyDescent="0.2">
       <c r="E55" s="73"/>
       <c r="F55" s="74"/>
       <c r="G55" s="69" t="s">
@@ -13173,7 +13092,7 @@
       <c r="AI55" s="67"/>
       <c r="AJ55" s="67"/>
     </row>
-    <row r="56" spans="2:36">
+    <row r="56" spans="2:36" x14ac:dyDescent="0.2">
       <c r="E56" s="73"/>
       <c r="F56" s="74" t="s">
         <v>107</v>
@@ -13211,7 +13130,7 @@
       <c r="AI56" s="67"/>
       <c r="AJ56" s="67"/>
     </row>
-    <row r="57" spans="2:36">
+    <row r="57" spans="2:36" x14ac:dyDescent="0.2">
       <c r="E57" s="77"/>
       <c r="F57" s="78"/>
       <c r="G57" s="78"/>
@@ -13245,7 +13164,7 @@
       <c r="AI57" s="67"/>
       <c r="AJ57" s="67"/>
     </row>
-    <row r="58" spans="2:36">
+    <row r="58" spans="2:36" x14ac:dyDescent="0.2">
       <c r="E58" s="75"/>
       <c r="F58" s="75"/>
       <c r="G58" s="75"/>
@@ -13279,7 +13198,7 @@
       <c r="AI58" s="67"/>
       <c r="AJ58" s="67"/>
     </row>
-    <row r="59" spans="2:36">
+    <row r="59" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B59" s="80"/>
       <c r="C59" s="80"/>
       <c r="D59" s="80"/>
@@ -13314,39 +13233,39 @@
       <c r="AG59" s="60"/>
       <c r="AH59" s="60"/>
     </row>
-    <row r="60" spans="2:36">
+    <row r="60" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C60" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="2:36">
+    <row r="61" spans="2:36" x14ac:dyDescent="0.2">
       <c r="D61" s="83" t="s">
         <v>111</v>
       </c>
       <c r="E61" s="83"/>
     </row>
-    <row r="62" spans="2:36">
+    <row r="62" spans="2:36" x14ac:dyDescent="0.2">
       <c r="E62" s="38" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="2:36">
+    <row r="64" spans="2:36" x14ac:dyDescent="0.2">
       <c r="D64" s="83" t="s">
         <v>113</v>
       </c>
       <c r="E64" s="83"/>
     </row>
-    <row r="65" spans="2:70">
+    <row r="65" spans="2:70" x14ac:dyDescent="0.2">
       <c r="E65" s="38" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="2:70">
+    <row r="67" spans="2:70" x14ac:dyDescent="0.2">
       <c r="E67" s="38" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="2:70">
+    <row r="68" spans="2:70" x14ac:dyDescent="0.2">
       <c r="E68" s="291" t="s">
         <v>65</v>
       </c>
@@ -13380,7 +13299,7 @@
       <c r="AA68" s="356"/>
       <c r="AB68" s="356"/>
     </row>
-    <row r="69" spans="2:70">
+    <row r="69" spans="2:70" x14ac:dyDescent="0.2">
       <c r="E69" s="331">
         <v>0</v>
       </c>
@@ -13414,22 +13333,22 @@
       <c r="AA69" s="297"/>
       <c r="AB69" s="297"/>
     </row>
-    <row r="71" spans="2:70">
+    <row r="71" spans="2:70" x14ac:dyDescent="0.2">
       <c r="D71" s="83" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="2:70">
+    <row r="72" spans="2:70" x14ac:dyDescent="0.2">
       <c r="D72" s="83"/>
       <c r="E72" s="83" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="2:70">
+    <row r="73" spans="2:70" x14ac:dyDescent="0.2">
       <c r="D73" s="83"/>
       <c r="E73" s="83"/>
     </row>
-    <row r="75" spans="2:70" s="85" customFormat="1">
+    <row r="75" spans="2:70" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="84"/>
       <c r="C75" s="38" t="s">
         <v>120</v>
@@ -13468,7 +13387,7 @@
       <c r="AN75" s="38"/>
       <c r="BR75" s="38"/>
     </row>
-    <row r="76" spans="2:70">
+    <row r="76" spans="2:70" x14ac:dyDescent="0.2">
       <c r="D76" s="86" t="s">
         <v>121</v>
       </c>
@@ -13503,7 +13422,7 @@
       <c r="AG76" s="86"/>
       <c r="AH76" s="86"/>
     </row>
-    <row r="77" spans="2:70">
+    <row r="77" spans="2:70" x14ac:dyDescent="0.2">
       <c r="D77" s="86"/>
       <c r="E77" s="86" t="s">
         <v>122</v>
@@ -13538,7 +13457,7 @@
       <c r="AG77" s="86"/>
       <c r="AH77" s="86"/>
     </row>
-    <row r="78" spans="2:70">
+    <row r="78" spans="2:70" x14ac:dyDescent="0.2">
       <c r="D78" s="86"/>
       <c r="E78" s="86"/>
       <c r="F78" s="86"/>
@@ -13571,7 +13490,7 @@
       <c r="AG78" s="86"/>
       <c r="AH78" s="86"/>
     </row>
-    <row r="79" spans="2:70">
+    <row r="79" spans="2:70" x14ac:dyDescent="0.2">
       <c r="D79" s="86"/>
       <c r="F79" s="87" t="s">
         <v>123</v>
@@ -13605,7 +13524,7 @@
       <c r="AG79" s="86"/>
       <c r="AH79" s="86"/>
     </row>
-    <row r="80" spans="2:70">
+    <row r="80" spans="2:70" x14ac:dyDescent="0.2">
       <c r="D80" s="86"/>
       <c r="F80" s="87"/>
       <c r="G80" s="86"/>
@@ -13637,7 +13556,7 @@
       <c r="AG80" s="86"/>
       <c r="AH80" s="86"/>
     </row>
-    <row r="81" spans="4:67">
+    <row r="81" spans="4:67" x14ac:dyDescent="0.2">
       <c r="D81" s="86"/>
       <c r="F81" s="334" t="s">
         <v>124</v>
@@ -13677,7 +13596,7 @@
       <c r="AG81" s="338"/>
       <c r="AH81" s="339"/>
     </row>
-    <row r="82" spans="4:67" s="88" customFormat="1">
+    <row r="82" spans="4:67" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D82" s="89"/>
       <c r="F82" s="90"/>
       <c r="G82" s="90"/>
@@ -13709,7 +13628,7 @@
       <c r="AG82" s="90"/>
       <c r="AH82" s="90"/>
     </row>
-    <row r="83" spans="4:67">
+    <row r="83" spans="4:67" x14ac:dyDescent="0.2">
       <c r="D83" s="86"/>
       <c r="E83" s="86" t="s">
         <v>128</v>
@@ -13748,7 +13667,7 @@
       <c r="BN83" s="67"/>
       <c r="BO83" s="67"/>
     </row>
-    <row r="84" spans="4:67">
+    <row r="84" spans="4:67" x14ac:dyDescent="0.2">
       <c r="D84" s="86"/>
       <c r="E84" s="86"/>
       <c r="F84" s="86"/>
@@ -13781,7 +13700,7 @@
       <c r="AG84" s="86"/>
       <c r="AH84" s="86"/>
     </row>
-    <row r="85" spans="4:67">
+    <row r="85" spans="4:67" x14ac:dyDescent="0.2">
       <c r="F85" s="345" t="s">
         <v>36</v>
       </c>
@@ -13825,7 +13744,7 @@
       <c r="AH85" s="350"/>
       <c r="AI85" s="97"/>
     </row>
-    <row r="86" spans="4:67">
+    <row r="86" spans="4:67" x14ac:dyDescent="0.2">
       <c r="F86" s="346"/>
       <c r="G86" s="347"/>
       <c r="H86" s="347"/>
@@ -13861,7 +13780,7 @@
       <c r="AH86" s="353"/>
       <c r="AI86" s="97"/>
     </row>
-    <row r="87" spans="4:67" ht="11.25" customHeight="1">
+    <row r="87" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F87" s="104">
         <v>1</v>
       </c>
@@ -13905,7 +13824,7 @@
       <c r="AH87" s="329"/>
       <c r="AI87" s="97"/>
     </row>
-    <row r="88" spans="4:67" ht="11.25" customHeight="1">
+    <row r="88" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F88" s="104">
         <v>2</v>
       </c>
@@ -13948,7 +13867,7 @@
       <c r="AG88" s="328"/>
       <c r="AH88" s="329"/>
     </row>
-    <row r="89" spans="4:67" ht="11.25" customHeight="1">
+    <row r="89" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F89" s="104">
         <v>3</v>
       </c>
@@ -13991,7 +13910,7 @@
       <c r="AG89" s="328"/>
       <c r="AH89" s="329"/>
     </row>
-    <row r="90" spans="4:67" ht="11.25" customHeight="1">
+    <row r="90" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F90" s="104">
         <v>4</v>
       </c>
@@ -14035,7 +13954,7 @@
       <c r="AH90" s="329"/>
       <c r="AI90" s="97"/>
     </row>
-    <row r="91" spans="4:67" ht="11.25" customHeight="1">
+    <row r="91" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F91" s="104">
         <v>5</v>
       </c>
@@ -14078,7 +13997,7 @@
       <c r="AG91" s="328"/>
       <c r="AH91" s="329"/>
     </row>
-    <row r="92" spans="4:67" ht="11.25" customHeight="1">
+    <row r="92" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F92" s="104">
         <v>6</v>
       </c>
@@ -14121,7 +14040,7 @@
       <c r="AG92" s="328"/>
       <c r="AH92" s="329"/>
     </row>
-    <row r="93" spans="4:67" ht="11.25" customHeight="1">
+    <row r="93" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F93" s="104">
         <v>7</v>
       </c>
@@ -14165,7 +14084,7 @@
       <c r="AH93" s="329"/>
       <c r="AI93" s="97"/>
     </row>
-    <row r="94" spans="4:67" ht="11.25" customHeight="1">
+    <row r="94" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F94" s="104">
         <v>8</v>
       </c>
@@ -14208,7 +14127,7 @@
       <c r="AG94" s="328"/>
       <c r="AH94" s="329"/>
     </row>
-    <row r="95" spans="4:67" ht="11.25" customHeight="1">
+    <row r="95" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F95" s="104">
         <v>9</v>
       </c>
@@ -14251,7 +14170,7 @@
       <c r="AG95" s="328"/>
       <c r="AH95" s="329"/>
     </row>
-    <row r="96" spans="4:67" ht="11.25" customHeight="1">
+    <row r="96" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F96" s="104">
         <v>10</v>
       </c>
@@ -14295,7 +14214,7 @@
       <c r="AH96" s="329"/>
       <c r="AI96" s="97"/>
     </row>
-    <row r="97" spans="3:35" ht="11.25" customHeight="1">
+    <row r="97" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F97" s="104">
         <v>11</v>
       </c>
@@ -14338,7 +14257,7 @@
       <c r="AG97" s="328"/>
       <c r="AH97" s="329"/>
     </row>
-    <row r="98" spans="3:35" ht="11.25" customHeight="1">
+    <row r="98" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F98" s="104">
         <v>12</v>
       </c>
@@ -14381,7 +14300,7 @@
       <c r="AG98" s="328"/>
       <c r="AH98" s="329"/>
     </row>
-    <row r="99" spans="3:35" ht="11.25" customHeight="1">
+    <row r="99" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F99" s="104">
         <v>13</v>
       </c>
@@ -14425,10 +14344,10 @@
       <c r="AH99" s="329"/>
       <c r="AI99" s="97"/>
     </row>
-    <row r="102" spans="3:35">
+    <row r="102" spans="3:35" x14ac:dyDescent="0.2">
       <c r="AI102" s="80"/>
     </row>
-    <row r="111" spans="3:35">
+    <row r="111" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C111" s="116"/>
       <c r="D111" s="116"/>
       <c r="E111" s="116"/>
@@ -14622,42 +14541,42 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12">
+    <row r="1" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="12">
+    <row r="2" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="12">
+    <row r="3" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="12">
+    <row r="4" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="12">
+    <row r="5" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="12">
+    <row r="6" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="12">
+    <row r="7" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>53</v>
       </c>
